--- a/models/Multi_dimentional_data_covar/07_Zuf_Opp_1.xlsx
+++ b/models/Multi_dimentional_data_covar/07_Zuf_Opp_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="150" windowWidth="15480" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Regierung</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>Zufriedenheit mit Regierung und Opposition</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -110,14 +118,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -125,23 +133,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,7 +188,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,15 +491,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -501,7 +509,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
@@ -511,7 +519,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -519,7 +527,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -529,7 +537,10 @@
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +552,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>41656</v>
       </c>
@@ -555,7 +566,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>41670</v>
       </c>
@@ -569,7 +580,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>41691</v>
       </c>
@@ -583,7 +594,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>41712</v>
       </c>
@@ -597,7 +608,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>41726</v>
       </c>
@@ -611,7 +622,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>41740</v>
       </c>
@@ -625,7 +636,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>41768</v>
       </c>
@@ -639,7 +650,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="6">
         <v>41795</v>
       </c>
@@ -653,7 +664,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="6">
         <v>41817</v>
       </c>
@@ -667,7 +678,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="6">
         <v>41838</v>
       </c>
@@ -681,7 +692,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="6">
         <v>41873</v>
       </c>
@@ -695,7 +706,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="6">
         <v>41887</v>
       </c>
@@ -709,7 +720,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="6">
         <v>41908</v>
       </c>
@@ -723,7 +734,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="6">
         <v>41922</v>
       </c>
@@ -737,7 +748,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="6">
         <v>41936</v>
       </c>
@@ -751,7 +762,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="6">
         <v>41957</v>
       </c>
@@ -765,7 +776,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="6">
         <v>41971</v>
       </c>
@@ -779,7 +790,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="6">
         <v>41985</v>
       </c>
@@ -793,7 +804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="6">
         <v>42020</v>
       </c>
@@ -807,7 +818,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="6">
         <v>42034</v>
       </c>
@@ -821,7 +832,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="6">
         <v>42062</v>
       </c>
@@ -835,7 +846,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="6">
         <v>42076</v>
       </c>
@@ -849,7 +860,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="6">
         <v>42090</v>
       </c>
@@ -863,7 +874,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>42111</v>
       </c>
@@ -877,7 +888,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>42146</v>
       </c>
@@ -891,7 +902,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>42167</v>
       </c>
@@ -905,7 +916,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="6">
         <v>42188</v>
       </c>
@@ -919,7 +930,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="6">
         <v>42209</v>
       </c>
@@ -933,7 +944,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="2">
         <v>42237</v>
       </c>
@@ -947,7 +958,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="6">
         <v>42258</v>
       </c>
@@ -961,7 +972,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="6">
         <v>42272</v>
       </c>
@@ -975,7 +986,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="6">
         <v>42286</v>
       </c>
@@ -991,7 +1002,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="6">
         <v>42300</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="6">
         <v>42321</v>
       </c>
@@ -1019,7 +1030,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="6">
         <v>42335</v>
       </c>
@@ -1033,7 +1044,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="6">
         <v>42349</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="6">
         <v>42384</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="6">
         <v>42398</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="6">
         <v>42419</v>
       </c>
@@ -1089,7 +1100,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="6">
         <v>42447</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="6">
         <v>42468</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="6">
         <v>42482</v>
       </c>
@@ -1131,7 +1142,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="6">
         <v>42503</v>
       </c>
@@ -1145,7 +1156,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" s="6">
         <v>42524</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="6">
         <v>42545</v>
       </c>
@@ -1173,7 +1184,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="B55" s="6">
         <v>42559</v>
       </c>
@@ -1187,7 +1198,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="B56" s="6">
         <v>42573</v>
       </c>
@@ -1201,7 +1212,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="B57" s="6">
         <v>42594</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="58" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" s="3" customFormat="1">
       <c r="B58" s="6">
         <v>42636</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="59" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" s="3" customFormat="1">
       <c r="B59" s="6">
         <v>42657</v>
       </c>
@@ -1244,7 +1255,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" s="3" customFormat="1">
       <c r="B60" s="6">
         <v>42671</v>
       </c>
@@ -1259,7 +1270,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" s="3" customFormat="1">
       <c r="B61" s="6">
         <v>42685</v>
       </c>
@@ -1274,7 +1285,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="B62" s="6">
         <v>42699</v>
       </c>
@@ -1289,7 +1300,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" s="6">
         <v>42713</v>
       </c>
@@ -1304,7 +1315,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="B64" s="6">
         <v>42748</v>
       </c>
@@ -1319,7 +1330,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" s="10">
         <v>42762</v>
       </c>
@@ -1334,7 +1345,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="6">
         <v>42783</v>
       </c>
@@ -1349,7 +1360,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="10">
         <v>42804</v>
       </c>
@@ -1364,7 +1375,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="10">
         <v>42832</v>
       </c>
@@ -1379,7 +1390,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" s="10">
         <v>42853</v>
       </c>
@@ -1394,70 +1405,70 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -1473,6 +1484,11 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1482,11 +1498,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1496,10 +1517,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>